--- a/static/Workbook2.xlsx
+++ b/static/Workbook2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julitakriauciunaite/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julitakriauciunaite/Desktop/Repositories/react-spreadsheet-import/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>name</t>
   </si>
@@ -42,13 +42,16 @@
   </si>
   <si>
     <t>Lena</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -61,6 +64,13 @@
       <color rgb="FF6A8759"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,9 +93,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,44 +375,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
+      <c r="C2" s="3">
+        <v>43893</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
       </c>
+      <c r="C3" s="3">
+        <v>40272</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>34392</v>
       </c>
     </row>
   </sheetData>
